--- a/automation/Repository/Accounts.xlsx
+++ b/automation/Repository/Accounts.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13360" windowHeight="2830"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_02_03" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Status</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>ABC</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -86,10 +89,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -415,6 +419,52 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/automation/Repository/Accounts.xlsx
+++ b/automation/Repository/Accounts.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13360" windowHeight="2830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13360" windowHeight="2830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_02_03" sheetId="2" r:id="rId1"/>
+    <sheet name="TC_04_05_06" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Status</t>
   </si>
@@ -54,6 +55,15 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Dealer</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Lender</t>
   </si>
 </sst>
 </file>
@@ -376,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,4 +478,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/automation/Repository/Accounts.xlsx
+++ b/automation/Repository/Accounts.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\JavaOcean\automation\Repository\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13360" windowHeight="2830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="5680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_02_03" sheetId="2" r:id="rId1"/>
     <sheet name="TC_04_05_06" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Status</t>
   </si>
@@ -64,6 +60,42 @@
   </si>
   <si>
     <t>Lender</t>
+  </si>
+  <si>
+    <t>sdff12</t>
+  </si>
+  <si>
+    <t>sdff13</t>
+  </si>
+  <si>
+    <t>sdff14</t>
+  </si>
+  <si>
+    <t>sdff15</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>sfsd1</t>
+  </si>
+  <si>
+    <t>sfsd2</t>
+  </si>
+  <si>
+    <t>sfsd3</t>
+  </si>
+  <si>
+    <t>sfsd4</t>
   </si>
 </sst>
 </file>
@@ -482,10 +514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,20 +542,62 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
-    </row>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/automation/Repository/Accounts.xlsx
+++ b/automation/Repository/Accounts.xlsx
@@ -3,15 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\JavaOcean\automation\Repository\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="5680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="5680" tabRatio="425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_02_03" sheetId="2" r:id="rId1"/>
     <sheet name="TC_04_05_06" sheetId="3" r:id="rId2"/>
+    <sheet name="TC_20_21_22_23_24" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,8 +25,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mohit Goel</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mohit Goel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter Either Pricesheet Code or Dealer ID, else price sheet code will be given priority</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Status</t>
   </si>
@@ -96,19 +135,74 @@
   </si>
   <si>
     <t>sfsd4</t>
+  </si>
+  <si>
+    <t>PricesheetCode</t>
+  </si>
+  <si>
+    <t>DealerException</t>
+  </si>
+  <si>
+    <t>AgentException</t>
+  </si>
+  <si>
+    <t>Surcharges</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Deductible</t>
+  </si>
+  <si>
+    <t>Agent_Plan_Type</t>
+  </si>
+  <si>
+    <t>Dealer_Plan_Type</t>
+  </si>
+  <si>
+    <t>RoleId</t>
+  </si>
+  <si>
+    <t>LenderException</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>MileageBand</t>
+  </si>
+  <si>
+    <t>Class</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -514,9 +608,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
@@ -597,8 +691,79 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/automation/Repository/Accounts.xlsx
+++ b/automation/Repository/Accounts.xlsx
@@ -513,7 +513,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -701,7 +701,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/automation/Repository/Accounts.xlsx
+++ b/automation/Repository/Accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="5680" tabRatio="425" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="5680" tabRatio="425"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_02_03" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,41 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mohit Goel</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mohit Goel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+tcase04
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Mohit Goel</author>
@@ -60,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Status</t>
   </si>
@@ -84,12 +119,6 @@
   </si>
   <si>
     <t>Zip_Code</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>Dealer</t>
@@ -183,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +232,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -509,11 +551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,10 +563,12 @@
     <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -549,60 +593,27 @@
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="3">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>9</v>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="3"/>
+      <c r="D4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -637,58 +648,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -700,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -720,46 +731,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/automation/Repository/Accounts.xlsx
+++ b/automation/Repository/Accounts.xlsx
@@ -3,20 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\JavaOcean\automation\Repository\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="5680" tabRatio="425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="3260" tabRatio="712" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_02_03" sheetId="2" r:id="rId1"/>
     <sheet name="TC_04_05_06" sheetId="3" r:id="rId2"/>
-    <sheet name="TC_20_21_22_23_24" sheetId="4" r:id="rId3"/>
+    <sheet name="TC_17_18_19" sheetId="5" r:id="rId3"/>
+    <sheet name="TC_20_21_22_23_24" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +36,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Mohit Goel:</t>
         </r>
@@ -48,7 +45,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 tcase04
@@ -95,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>Status</t>
   </si>
@@ -206,13 +203,181 @@
   </si>
   <si>
     <t>Class</t>
+  </si>
+  <si>
+    <t>PriceSheet</t>
+  </si>
+  <si>
+    <t>ExceptionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class </t>
+  </si>
+  <si>
+    <t>Payee</t>
+  </si>
+  <si>
+    <t>Bucket</t>
+  </si>
+  <si>
+    <t>cancelMethod</t>
+  </si>
+  <si>
+    <t>$ForCommissions</t>
+  </si>
+  <si>
+    <t>AdminBucket</t>
+  </si>
+  <si>
+    <t>ReserveBucket</t>
+  </si>
+  <si>
+    <t>InsuranceBucket</t>
+  </si>
+  <si>
+    <t>EffectiveDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCBAdministration </t>
+  </si>
+  <si>
+    <t>NCBFee</t>
+  </si>
+  <si>
+    <t>WaitingPeriod</t>
+  </si>
+  <si>
+    <t>NCBRetail</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>ALLPLANS</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>COMM_2_AX,COMM_4_AX</t>
+  </si>
+  <si>
+    <t>NCB</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>ADMIN_AUL_2_AX,ADMIN_AUL_2_AX</t>
+  </si>
+  <si>
+    <t>RES_RISK_AX,RES_RISK_AX</t>
+  </si>
+  <si>
+    <t>INS_CEDING_AX,INS_CEDING_AX</t>
+  </si>
+  <si>
+    <t>01/22/2020</t>
+  </si>
+  <si>
+    <t>ADMIN_NCB_FEE_2_AX,ADMIN_NCB_FEE_2_AX</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>ADMIN_NCB_FEE_RETAIL_AX</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>AAN</t>
+  </si>
+  <si>
+    <t>SELECTEDPLANS</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>RESERVE</t>
+  </si>
+  <si>
+    <t>60/60</t>
+  </si>
+  <si>
+    <t>COMM_3_AX</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>ADMIN_AUL_1_AX</t>
+  </si>
+  <si>
+    <t>RES_BASE_AX</t>
+  </si>
+  <si>
+    <t>INS_PTAX_AX</t>
+  </si>
+  <si>
+    <t>01/23/2020</t>
+  </si>
+  <si>
+    <t>ADMIN_NCB_FEE_2_AX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dealer </t>
+  </si>
+  <si>
+    <t>FIV</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>POWERTRAIN</t>
+  </si>
+  <si>
+    <t>36/50</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>RES_SURCHARGE_AX</t>
+  </si>
+  <si>
+    <t>INS_FL_FEE_AX</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>SNE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,19 +397,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -267,11 +419,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -621,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
@@ -708,6 +861,268 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>

--- a/automation/Repository/Accounts.xlsx
+++ b/automation/Repository/Accounts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="3260" tabRatio="712" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="3210" tabRatio="712" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_02_03" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="TC_20_21_22_23_24" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N9"/>
+  <oleSize ref="A1:O9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
   <si>
     <t>Status</t>
   </si>
@@ -371,6 +371,15 @@
   </si>
   <si>
     <t>SNE</t>
+  </si>
+  <si>
+    <t>COMM_2_AX</t>
+  </si>
+  <si>
+    <t>RES_RISK_AX</t>
+  </si>
+  <si>
+    <t>INS_CEDING_AX</t>
   </si>
 </sst>
 </file>
@@ -774,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
@@ -862,15 +871,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -935,7 +944,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -954,7 +963,7 @@
         <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
         <v>58</v>
@@ -963,13 +972,13 @@
         <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>63</v>
@@ -990,64 +999,60 @@
         <v>67</v>
       </c>
       <c r="U2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
         <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="S3" t="s">
+        <v>66</v>
+      </c>
       <c r="T3" t="s">
         <v>67</v>
       </c>
@@ -1055,65 +1060,127 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>84</v>
+      <c r="E4" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="I4" t="s">
         <v>74</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="L4" t="s">
         <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="P4" t="s">
         <v>81</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="T4" t="s">
         <v>67</v>
       </c>
       <c r="U4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" t="s">
         <v>67</v>
       </c>
     </row>

--- a/automation/Repository/Accounts.xlsx
+++ b/automation/Repository/Accounts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="3210" tabRatio="712" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="2920" tabRatio="712" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_02_03" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="TC_20_21_22_23_24" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O9"/>
+  <oleSize ref="A1:J8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
   <si>
     <t>Status</t>
   </si>
@@ -127,42 +127,6 @@
     <t>Lender</t>
   </si>
   <si>
-    <t>sdff12</t>
-  </si>
-  <si>
-    <t>sdff13</t>
-  </si>
-  <si>
-    <t>sdff14</t>
-  </si>
-  <si>
-    <t>sdff15</t>
-  </si>
-  <si>
-    <t>d2</t>
-  </si>
-  <si>
-    <t>d3</t>
-  </si>
-  <si>
-    <t>d4</t>
-  </si>
-  <si>
-    <t>d5</t>
-  </si>
-  <si>
-    <t>sfsd1</t>
-  </si>
-  <si>
-    <t>sfsd2</t>
-  </si>
-  <si>
-    <t>sfsd3</t>
-  </si>
-  <si>
-    <t>sfsd4</t>
-  </si>
-  <si>
     <t>PricesheetCode</t>
   </si>
   <si>
@@ -380,6 +344,12 @@
   </si>
   <si>
     <t>INS_CEDING_AX</t>
+  </si>
+  <si>
+    <t>ABC Motors</t>
+  </si>
+  <si>
+    <t>NY</t>
   </si>
 </sst>
 </file>
@@ -714,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -758,19 +728,29 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3">
-        <v>2</v>
+      <c r="B3">
+        <v>22723</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="D4">
-        <v>3</v>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +764,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -809,61 +789,21 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-    </row>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -873,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -887,61 +827,61 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="S1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="T1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="U1" t="s">
         <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:21" customFormat="1" x14ac:dyDescent="0.35">
@@ -949,57 +889,57 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="S2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="U2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:21" customFormat="1" x14ac:dyDescent="0.35">
@@ -1007,57 +947,57 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" t="s">
         <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:21" customFormat="1" x14ac:dyDescent="0.35">
@@ -1065,123 +1005,123 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s">
         <v>69</v>
       </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" t="s">
         <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T4" t="s">
-        <v>67</v>
-      </c>
-      <c r="U4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" t="s">
         <v>77</v>
       </c>
-      <c r="M5" t="s">
-        <v>89</v>
-      </c>
       <c r="N5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="U5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1213,46 +1153,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
